--- a/テストデータ入力用ひな形.xlsx
+++ b/テストデータ入力用ひな形.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\孝尚\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\spajam_gifu_2015\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14385" windowHeight="6525" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7508"/>
   </bookViews>
   <sheets>
     <sheet name="スポットマスター" sheetId="2" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
   <si>
     <t>登録日時_x000D_
 RegisteredDateTime</t>
@@ -113,6 +113,42 @@
   <si>
     <t>登録者ID_x000D_
 RegisteredUserID</t>
+  </si>
+  <si>
+    <t>ソフトピアの怪</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1996年にソフトピアビルが建設された際、壊された小さな社があったんじゃ。この社には、大昔からの地域の守り神様が祭られておったんじゃが、廃棄されてしまっての。それからというもの、ソフトピアビルのレストランで、女性の泣くような声が聞こえるようになってな。従業員がすぐに辞めてしまってレストランはオープンできず、ビルの住人さんたちも困り果てたんじゃ。結局廃棄された社を別の神社に移して丁寧に奉納したら、その声も聞こえないようになったんじゃ。よかったのお。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>大垣地蔵</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>毎年8月24日に、このお地蔵様の前にお菓子を持った大人が集まるんじゃ。そして、子どもたちが来るとお菓子をあげるんじゃ。地蔵盆というんじゃぞ、知ってるか？ところが10年前、お菓子の代わりに辛子レンコンを配った者がおってのお・・・それ以来、名前が変わってしまって辛子盆と呼ばれるようになってな。キムチやら台湾ラーメンやら、辛いものが好きな者たちが集まるようになってしもうた。どうしたものかの。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>三成坂（みつなりざか）</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>関ヶ原の戦いは知っとるじゃろ？お昼を過ぎてから、東軍の家康が総がかりで西軍を押し始め、西軍の総大将石田三成は逃走したんじゃ。ところが途中で捕まってしまって、三条河原でさらし首になったのじゃが、その捕まった場所がこの坂なんじゃ。それ以来、毎年9月15日になるとむせび泣きが聞こえるようになってしまってのお。昔の人はいろいろ考えた結果、坂に三成さまの好物である赤福をお供えしておくと大丈夫だと気づいたんじゃ。ずいぶんグルメじゃったんじゃな、三成さまは。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2015/5/23  18:00:00</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2015/5/23  18:01:00</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2015/5/23  18:02:00</t>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
@@ -197,7 +233,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -209,6 +245,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="1" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -491,25 +533,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="D3" sqref="A3:XFD5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.73046875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.1328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.53125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.59765625" style="1" customWidth="1"/>
     <col min="4" max="4" width="17.86328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.9296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.86328125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.265625" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.73046875" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17.46484375" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.46484375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.73046875" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="21.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.06640625" style="1"/>
+    <col min="13" max="16384" width="9.1328125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -553,6 +597,102 @@
       </c>
       <c r="L2" s="3" t="s">
         <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="57.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1">
+        <v>10</v>
+      </c>
+      <c r="G3" s="1">
+        <v>1</v>
+      </c>
+      <c r="H3" s="1">
+        <v>21</v>
+      </c>
+      <c r="J3" s="1">
+        <v>35.367775000000002</v>
+      </c>
+      <c r="K3" s="1">
+        <v>136.63971799999999</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1">
+        <v>11</v>
+      </c>
+      <c r="G4" s="1">
+        <v>2</v>
+      </c>
+      <c r="H4" s="1">
+        <v>21</v>
+      </c>
+      <c r="J4" s="1">
+        <v>35.357368000000001</v>
+      </c>
+      <c r="K4" s="1">
+        <v>136.611052</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1">
+        <v>12</v>
+      </c>
+      <c r="G5" s="1">
+        <v>3</v>
+      </c>
+      <c r="H5" s="1">
+        <v>21</v>
+      </c>
+      <c r="J5" s="1">
+        <v>35.355522999999998</v>
+      </c>
+      <c r="K5" s="1">
+        <v>136.63821300000001</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -571,20 +711,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.9296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.53125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.86328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.73046875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.46484375" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="32.59765625" style="1" customWidth="1"/>
     <col min="8" max="8" width="23.86328125" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18.86328125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="21.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.06640625" style="1"/>
+    <col min="11" max="16384" width="9.1328125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">

--- a/テストデータ入力用ひな形.xlsx
+++ b/テストデータ入力用ひな形.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7508"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7508" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="スポットマスター" sheetId="2" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="37">
   <si>
     <t>登録日時_x000D_
 RegisteredDateTime</t>
@@ -148,6 +148,40 @@
   </si>
   <si>
     <t>2015/5/23  18:02:00</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>タイトル</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>解析結果</t>
+    <rPh sb="0" eb="2">
+      <t>カイセキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ケッカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>かいせきけっか</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2015/5/23  00:00:00</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>UserID</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>AudioID</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -535,7 +569,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="D3" sqref="A3:XFD5"/>
     </sheetView>
   </sheetViews>
@@ -631,7 +665,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -663,7 +697,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="165.75" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -709,9 +743,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
@@ -764,6 +800,38 @@
         <v>0</v>
       </c>
     </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A2:J2"/>
   <phoneticPr fontId="2"/>

--- a/テストデータ入力用ひな形.xlsx
+++ b/テストデータ入力用ひな形.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7508" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7508"/>
   </bookViews>
   <sheets>
     <sheet name="スポットマスター" sheetId="2" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="38">
   <si>
     <t>登録日時_x000D_
 RegisteredDateTime</t>
@@ -184,12 +184,16 @@
     <t>AudioID</t>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>https://s3-ap-northeast-1.amazonaws.com/spajam-gifu/softpia_resized.jpg</t>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -219,6 +223,15 @@
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -259,15 +272,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -286,8 +302,12 @@
     <xf numFmtId="22" fontId="1" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="ハイパーリンク" xfId="2" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="標準 2" xfId="1"/>
   </cellStyles>
@@ -569,8 +589,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="D3" sqref="A3:XFD5"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -643,6 +663,9 @@
       <c r="C3" s="4" t="s">
         <v>22</v>
       </c>
+      <c r="D3" s="6" t="s">
+        <v>37</v>
+      </c>
       <c r="E3" s="1">
         <v>1</v>
       </c>
@@ -732,8 +755,11 @@
   </sheetData>
   <autoFilter ref="A2:L2"/>
   <phoneticPr fontId="2"/>
+  <hyperlinks>
+    <hyperlink ref="D3" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
   <headerFooter>
     <oddHeader>&amp;R&amp;D &amp;T</oddHeader>
     <oddFooter>&amp;C&amp;P / &amp;N</oddFooter>
@@ -745,7 +771,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>

--- a/テストデータ入力用ひな形.xlsx
+++ b/テストデータ入力用ひな形.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="40">
   <si>
     <t>登録日時_x000D_
 RegisteredDateTime</t>
@@ -186,6 +186,14 @@
   </si>
   <si>
     <t>https://s3-ap-northeast-1.amazonaws.com/spajam-gifu/softpia_resized.jpg</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>https://s3-ap-northeast-1.amazonaws.com/spajam-gifu/ohgaki_jizo_resized.jpg</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>https://s3-ap-northeast-1.amazonaws.com/spajam-gifu/mitsunari_zaka_resized.jpg</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -589,7 +597,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D4" workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
@@ -698,6 +706,9 @@
       <c r="C4" s="4" t="s">
         <v>24</v>
       </c>
+      <c r="D4" s="6" t="s">
+        <v>38</v>
+      </c>
       <c r="E4" s="1">
         <v>1</v>
       </c>
@@ -729,6 +740,9 @@
       </c>
       <c r="C5" s="4" t="s">
         <v>26</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>39</v>
       </c>
       <c r="E5" s="1">
         <v>1</v>
@@ -757,9 +771,11 @@
   <phoneticPr fontId="2"/>
   <hyperlinks>
     <hyperlink ref="D3" r:id="rId1"/>
+    <hyperlink ref="D4" r:id="rId2"/>
+    <hyperlink ref="D5" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
   <headerFooter>
     <oddHeader>&amp;R&amp;D &amp;T</oddHeader>
     <oddFooter>&amp;C&amp;P / &amp;N</oddFooter>

--- a/テストデータ入力用ひな形.xlsx
+++ b/テストデータ入力用ひな形.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="49">
   <si>
     <t>登録日時_x000D_
 RegisteredDateTime</t>
@@ -115,92 +115,98 @@
 RegisteredUserID</t>
   </si>
   <si>
+    <t>ソフトピア</t>
+  </si>
+  <si>
+    <t>1770f9d2-66fd-4c37-a1b0-19ffdeacc318</t>
+  </si>
+  <si>
     <t>ソフトピアの怪</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>1996年にソフトピアビルが建設された際、壊された小さな社があったんじゃ。この社には、大昔からの地域の守り神様が祭られておったんじゃが、廃棄されてしまっての。それからというもの、ソフトピアビルのレストランで、女性の泣くような声が聞こえるようになってな。従業員がすぐに辞めてしまってレストランはオープンできず、ビルの住人さんたちも困り果てたんじゃ。結局廃棄された社を別の神社に移して丁寧に奉納したら、その声も聞こえないようになったんじゃ。よかったのお。</t>
-    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>7b396fca-89a2-4138-a252-730c82f1c2a5</t>
+  </si>
+  <si>
+    <t>1996年にソフトピアビルが建設された際、壊された小さな社があったんじゃ。この社には、大昔からの地域の守り神様が祭られておったんじゃが、廃棄されてしまっての。それからというもの、ソフトピアビルのレストランで、女性の泣くような声が聞こえるようになっ</t>
+  </si>
+  <si>
+    <t>1118def4-81bc-4a26-9e7c-01516d0ac126</t>
+  </si>
+  <si>
+    <t>eec7ccf4-e1d2-4186-8266-9d7f35d68141</t>
+  </si>
+  <si>
+    <t>大垣地蔵の怪</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>21126095-2bd6-4332-9fa2-0dcd9e25bb94</t>
+  </si>
+  <si>
+    <t>毎年8月24日に、このお地蔵様の前にお菓子を持った大人が集まるんじゃ。そして、子どもたちが来るとお菓子をあげるんじゃ。地蔵盆というんじゃぞ、知ってるか？ところが10年前、お菓子の代わりに辛子レンコンを配った者がおってのお・・・それ以来、名前が変わってしまって辛子盆と呼ばれるようになってな。キムチやら台湾ラーメンやら、辛いものが好きな者たちが集まるようになってしもうた。どうしたものかの。</t>
+  </si>
+  <si>
+    <t>4267de0c-202c-4f3c-9a9c-6571bd32e814</t>
+  </si>
+  <si>
+    <t>c1b24dd9-17ef-4762-afc3-918756f58f57</t>
+  </si>
+  <si>
+    <t>三成坂の怪</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>1b7a6926-30ba-4668-9916-aebf22797275</t>
+  </si>
+  <si>
+    <t>関ヶ原の戦いは知っとるじゃろ？お昼を過ぎてから、東軍の家康が総がかりで西軍を押し始め、西軍の総大将石田三成は逃走したんじゃ。ところが途中で捕まってしまって、三条河原でさらし首になったのじゃが、その捕まった場所がこの坂なんじゃ。それ以来、毎年9月15日になるとむせび泣きが聞こえるようになってしまってのお。</t>
+  </si>
+  <si>
+    <t>ed64c716-da4e-44f3-a5c0-f6dcdeef0006</t>
+  </si>
+  <si>
+    <t>岐阜県が大垣市に1990年代より整備した先進情報産業団地、またはこれを運営する公益財団法人。</t>
+  </si>
+  <si>
+    <t>https://s3-ap-northeast-1.amazonaws.com/spajam-gifu/softpia_resized.jpg</t>
+  </si>
+  <si>
+    <t>​(NULL)​</t>
   </si>
   <si>
     <t>大垣地蔵</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>毎年8月24日に、このお地蔵様の前にお菓子を持った大人が集まるんじゃ。そして、子どもたちが来るとお菓子をあげるんじゃ。地蔵盆というんじゃぞ、知ってるか？ところが10年前、お菓子の代わりに辛子レンコンを配った者がおってのお・・・それ以来、名前が変わってしまって辛子盆と呼ばれるようになってな。キムチやら台湾ラーメンやら、辛いものが好きな者たちが集まるようになってしもうた。どうしたものかの。</t>
-    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>毎年8月24日に、お菓子を持った大人が集まるお地蔵様</t>
+  </si>
+  <si>
+    <t>https://s3-ap-northeast-1.amazonaws.com/spajam-gifu/ohgaki_jizo_resized.jpg</t>
   </si>
   <si>
     <t>三成坂（みつなりざか）</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>関ヶ原の戦いは知っとるじゃろ？お昼を過ぎてから、東軍の家康が総がかりで西軍を押し始め、西軍の総大将石田三成は逃走したんじゃ。ところが途中で捕まってしまって、三条河原でさらし首になったのじゃが、その捕まった場所がこの坂なんじゃ。それ以来、毎年9月15日になるとむせび泣きが聞こえるようになってしまってのお。昔の人はいろいろ考えた結果、坂に三成さまの好物である赤福をお供えしておくと大丈夫だと気づいたんじゃ。ずいぶんグルメじゃったんじゃな、三成さまは。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>2015/5/23  18:00:00</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>2015/5/23  18:01:00</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>2015/5/23  18:02:00</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>タイトル</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ID</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>解析結果</t>
-    <rPh sb="0" eb="2">
-      <t>カイセキ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ケッカ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>かいせきけっか</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>2015/5/23  00:00:00</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>UserID</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>AudioID</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>https://s3-ap-northeast-1.amazonaws.com/spajam-gifu/softpia_resized.jpg</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>https://s3-ap-northeast-1.amazonaws.com/spajam-gifu/ohgaki_jizo_resized.jpg</t>
-    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>関ヶ原の戦いの西軍の総大将石田三成が捕まった坂。</t>
   </si>
   <si>
     <t>https://s3-ap-northeast-1.amazonaws.com/spajam-gifu/mitsunari_zaka_resized.jpg</t>
-    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="2">
+    <numFmt numFmtId="176" formatCode="yyyy/mm/dd\ h:mm:ss.000"/>
+    <numFmt numFmtId="177" formatCode="yyyy/mm/dd\ h:mm:ss"/>
+  </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -233,13 +239,11 @@
       <charset val="128"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color theme="10"/>
+      <color indexed="22"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <family val="2"/>
+      <family val="3"/>
       <charset val="128"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -280,18 +284,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -304,18 +305,20 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="22" fontId="1" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="ハイパーリンク" xfId="2" builtinId="8"/>
+  <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="標準 2" xfId="1"/>
   </cellStyles>
@@ -597,8 +600,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D4" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -661,109 +664,118 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="57.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3" s="4">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="F3" s="4">
+        <v>10</v>
+      </c>
+      <c r="G3" s="4">
+        <v>1</v>
+      </c>
+      <c r="H3" s="4">
         <v>21</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E3" s="1">
+      <c r="I3" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="J3" s="4">
+        <v>35.367775000000002</v>
+      </c>
+      <c r="K3" s="4">
+        <v>136.63971799999999</v>
+      </c>
+      <c r="L3" s="7">
+        <v>42147.75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" s="4">
         <v>1</v>
       </c>
-      <c r="F3" s="1">
-        <v>10</v>
-      </c>
-      <c r="G3" s="1">
+      <c r="F4" s="4">
+        <v>11</v>
+      </c>
+      <c r="G4" s="4">
+        <v>2</v>
+      </c>
+      <c r="H4" s="4">
+        <v>21</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="J4" s="4">
+        <v>35.357368000000001</v>
+      </c>
+      <c r="K4" s="4">
+        <v>136.611052</v>
+      </c>
+      <c r="L4" s="7">
+        <v>42147.750694444447</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E5" s="4">
         <v>1</v>
       </c>
-      <c r="H3" s="1">
+      <c r="F5" s="4">
+        <v>12</v>
+      </c>
+      <c r="G5" s="4">
+        <v>3</v>
+      </c>
+      <c r="H5" s="4">
         <v>21</v>
       </c>
-      <c r="J3" s="1">
-        <v>35.367775000000002</v>
-      </c>
-      <c r="K3" s="1">
-        <v>136.63971799999999</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="140.25" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="E4" s="1">
-        <v>1</v>
-      </c>
-      <c r="F4" s="1">
-        <v>11</v>
-      </c>
-      <c r="G4" s="1">
-        <v>2</v>
-      </c>
-      <c r="H4" s="1">
-        <v>21</v>
-      </c>
-      <c r="J4" s="1">
-        <v>35.357368000000001</v>
-      </c>
-      <c r="K4" s="1">
-        <v>136.611052</v>
-      </c>
-      <c r="L4" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="165.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E5" s="1">
-        <v>1</v>
-      </c>
-      <c r="F5" s="1">
-        <v>12</v>
-      </c>
-      <c r="G5" s="1">
-        <v>3</v>
-      </c>
-      <c r="H5" s="1">
-        <v>21</v>
-      </c>
-      <c r="J5" s="1">
+      <c r="I5" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="J5" s="4">
         <v>35.355522999999998</v>
       </c>
-      <c r="K5" s="1">
+      <c r="K5" s="4">
         <v>136.63821300000001</v>
       </c>
-      <c r="L5" s="5" t="s">
-        <v>29</v>
+      <c r="L5" s="7">
+        <v>42147.751388888886</v>
       </c>
     </row>
   </sheetData>
@@ -785,10 +797,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -843,35 +855,99 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+      <c r="A3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="4">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="E3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" s="5">
+        <v>42148.164647766207</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="1">
+      <c r="D4" s="4">
         <v>1</v>
       </c>
-      <c r="D3" s="1">
+      <c r="E4" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J4" s="5">
+        <v>42148.175518715281</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="4">
         <v>1</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>34</v>
+      <c r="E5" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J5" s="5">
+        <v>42148.182512233798</v>
       </c>
     </row>
   </sheetData>
